--- a/AllData/RawData/Surveys.xlsx
+++ b/AllData/RawData/Surveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivomb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\jobskill\skill-job-matching\AllData\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886579ED-1E33-41DF-BF27-54291E76B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17428700-E65F-4039-A387-F4164A2CBD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -142,12 +142,39 @@
     <t>anonymous</t>
   </si>
   <si>
+    <t xml:space="preserve">KANA LAURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOGANG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanalaura02@gmail.com </t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
     <t>Bachelors </t>
   </si>
   <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 300 MLS students </t>
+  </si>
+  <si>
     <t>Technology and Innovation;</t>
   </si>
   <si>
+    <t>Leadership and Management;Communication and Interpersonal;</t>
+  </si>
+  <si>
+    <t>Fieldwork and Outdoor Environment</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Taking Calculated Risks and Higher Rewards</t>
   </si>
   <si>
@@ -157,6 +184,9 @@
     <t>Yes, I have thought about it extensively.</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>Yes, definitely.</t>
   </si>
   <si>
@@ -166,15 +196,63 @@
     <t xml:space="preserve"> I can handle moderate stress but prefer low-pressure environments.</t>
   </si>
   <si>
+    <t>Work-Life Balance and Personal Fulfillment</t>
+  </si>
+  <si>
     <t xml:space="preserve"> I'm still exploring different career options.</t>
   </si>
   <si>
+    <t>Something you can do with passion and with being payed for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving lives </t>
+  </si>
+  <si>
+    <t>You neglect nothing in your life</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am focused </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Bruline Imo</t>
+  </si>
+  <si>
+    <t>Ekiambere</t>
+  </si>
+  <si>
+    <t>ekiamberebruline@hotmail.com</t>
+  </si>
+  <si>
     <t>Man</t>
   </si>
   <si>
     <t>Masters</t>
   </si>
   <si>
+    <t>Hello,
+I am Ekiambere Bruline Imo and I'm a Cadre Contractuel d'Administration at Observatoire National sur les Changements Climatiques (ONACC). 
+My background is in Human Resources Management. Before joining ONACC, I worked at World Agroforestry (ICRAF-Cameroon) as a Temporary HR Assistant.
+I am delighted to walk this path, which I believe should lead me towards improving as a professional.</t>
+  </si>
+  <si>
+    <t>Technology and Innovation;Business and Entrepreneurship;Social and Environmental Causes;</t>
+  </si>
+  <si>
+    <t>Adaptability and Flexibility;Time Management and Organization;Technical and IT;Analytical and Problem-Solving;</t>
+  </si>
+  <si>
     <t>Collaborative Office Setting</t>
   </si>
   <si>
@@ -187,6 +265,33 @@
     <t>Moderate Alignment</t>
   </si>
   <si>
+    <t>No, I haven't given it much thought.</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>a fulfilled career and life would look like one where my skills and talent are relevant and it accommodates my personal life (family)</t>
+  </si>
+  <si>
+    <t>To me, industry growth is important. I am willing to take exams and studies to refresh/update my knowledge skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dynamic nature of it, while contributing to the organisation's development </t>
+  </si>
+  <si>
+    <t>it reduces stress in all its forms while improving engagement and productivity at work</t>
+  </si>
+  <si>
+    <t>My Bachelors was about teaching me the basics to management and in it, i furthered with a master's degree in HRM leading me to HR in general</t>
+  </si>
+  <si>
+    <t>Not at the moment, but I am open minded as to discovering, developing and exploiting my passion</t>
+  </si>
+  <si>
+    <t>Not at the moment</t>
+  </si>
+  <si>
     <t>Njinju</t>
   </si>
   <si>
@@ -314,6 +419,216 @@
   </si>
   <si>
     <t>I am a role model to myself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavian Fukah </t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>flavianfukah19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As stated above, my name is Flavian Fukah Jam from Cameroon. I have a Bachelor's degree in Microbiology and currently pursuing a Master's degree in the same field </t>
+  </si>
+  <si>
+    <t>Technology and Innovation;Social and Environmental Causes;Other (please specify);</t>
+  </si>
+  <si>
+    <t>Communication and Interpersonal;Leadership and Management;Time Management and Organization;Adaptability and Flexibility;Other (please specify);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm working towards becoming a healthcare researcher where I can be able to identify health challenges and gaps then carry out research to fill the gaps and answer scientific questions </t>
+  </si>
+  <si>
+    <t>I consider a fulfilled career to be one in which a person finds it enjoyable and meaningful while at it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm willing to continue studying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My motivation is the completion of tasks and seeing that this accomplishments ar implemented </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very important </t>
+  </si>
+  <si>
+    <t>Yes I can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have in the past years in the pursuit of my masters built a diverse number of skills that can make me stand out among others </t>
+  </si>
+  <si>
+    <t xml:space="preserve">During my undergraduate studies I carried out research in medicinal plants use in the treatment of brain related diseases and came out with a portfolio of plants that are common among those practicing this form of treatment </t>
+  </si>
+  <si>
+    <t>Yeah, finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through my years of studies I've heard of great names and their achievements but I haven't really considered any as a role model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tchoffo Tido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borel Valtaire </t>
+  </si>
+  <si>
+    <t>valtaireborel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a young Cameroonian with a Bachelor's degree in International Relations
+I'm also a manager of a wine shop presently
+I'm again a trainer in academy where we train kids in sports and extra curricular activities to help them realize their capabilities for a new generation in order to better the world.
+I also have some knowledge of medical science </t>
+  </si>
+  <si>
+    <t>Business and Entrepreneurship;Other (please specify);</t>
+  </si>
+  <si>
+    <t>Leadership and Management;Analytical and Problem-Solving;Communication and Interpersonal;Adaptability and Flexibility;Time Management and Organization;</t>
+  </si>
+  <si>
+    <t>Balanced Approach</t>
+  </si>
+  <si>
+    <t>Social Services</t>
+  </si>
+  <si>
+    <t>Making a Positive Social or Environmental Impact</t>
+  </si>
+  <si>
+    <t>My career path is to either work with governmental or non-governmental organizations to better the world in human rights, gender based violence and others related fields. I will also want to b an Ambassador to exercise my leadership skills.</t>
+  </si>
+  <si>
+    <t>A fulfilled career and life is an archive goal or dreams that is choosing positive ideas over negative ones.</t>
+  </si>
+  <si>
+    <t>Yes industry growth is very important. Yes I'm willing to do so with all dew respect.</t>
+  </si>
+  <si>
+    <t>What motivates is the fact we live in world full or norms either customary or traditional, which greatly affects our society. These norms needs to be reviewed to better the world and the relations of the people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work-life balance is me seeing people happy and treating one another right </t>
+  </si>
+  <si>
+    <t>Yes, I can</t>
+  </si>
+  <si>
+    <t>I can't really tell about differentiating myself from the others with similar interests because all of us have our different gifts and potentials in life from God. Some of us are born leaders while others are trained leaders, we don't have to try to copy another person's life. All of us may have also undergo the same training but some of us had higher GPA than others but the GPA doesn't actually matter but really does matters is if we really learned something during the training (our skills) what I can do.</t>
+  </si>
+  <si>
+    <t>My proudest achievement so far was being humble while working with kids while studying in the university for my bachelor's degree, they made me to know myself and potentials, to choose either to focus on happiness or problems for it's just how I lead myself that dictate the outcome of things. Always rise when fall for it's not the end of life and keep on trying.</t>
+  </si>
+  <si>
+    <t>Yes, I do. Leadership and Diplomat</t>
+  </si>
+  <si>
+    <t>Yes, there are things holding me back. Financial problems, corruption.</t>
+  </si>
+  <si>
+    <t>Yes, I do. His Excellency President Paul Biya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNE MAMETCHEUP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia </t>
+  </si>
+  <si>
+    <t>magneleticia9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am called MAGNE M. Leticia, 25 years old, married with two children, living in Douala-Cameroon and I am currently enrolled for a PhD program at the University of Yaounde 1 in the field of Biochemistry precisely Biotechnology and development </t>
+  </si>
+  <si>
+    <t>Technology and Innovation;Creative Arts and Design;Business and Entrepreneurship;</t>
+  </si>
+  <si>
+    <t>Communication and Interpersonal;Creativity and Innovation;Adaptability and Flexibility;Time Management and Organization;</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fulfilled career and life for me refer to a state were I find peace, help others and my self and love what am doing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes it is important and yes I am willing to take an exam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am motivated with the fact of possibly helping people, the society and creating positive impacts </t>
+  </si>
+  <si>
+    <t>Somehow: Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am passionate and love what I want to do </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presently being admitted as a PhD student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, am still confused </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, proper orientation and motivation </t>
+  </si>
+  <si>
+    <t>Yes, I do but they all in different desired fields</t>
+  </si>
+  <si>
+    <t>Ngangeh</t>
+  </si>
+  <si>
+    <t>Chrisogonus TANKO</t>
+  </si>
+  <si>
+    <t>chrysogonust@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a master's degree in project management, a bachelor in philosophy, and I am a practicing monitoring and evaluator. I look forward to building necessary skills and directing my professional growth in monitoring and evaluation. As a human being in the world I equally aspire to build up a business for myself, but I have no experience in business, and I have no area of business I can say I want to embark on, given my limited knowledge in business. </t>
+  </si>
+  <si>
+    <t>Business and Entrepreneurship;</t>
+  </si>
+  <si>
+    <t>Analytical and Problem-Solving;Time Management and Organization;Leadership and Management;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, I have had the opportunity to practice as a monitoring and evaluator for the past 4 years without a base. I have taken a few short courses sustaining me so far. Right now, I want to become a reference in the monitoring and evaluation field with great ability to personally become an entrepreneur in this field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When will be able to discharge  my career duties with confident skills, make a livelihood out of it and impact my community positively </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it is important and I will be willing to build academically on it </t>
+  </si>
+  <si>
+    <t>It ensures accountability and quality in whatever is taken onboard. It will remain relevant at any point in time. My experience in the field has equally shown that everyone and every sector needs this skill while few persons have the skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is very important as it helps me to remain healthy will producing results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all. This is the reason I need to do more to become really relevant in the field of monitoring and evaluation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been pushing my way through due to the interest I have in the field. I have made a lot of extra effort to catch up because of the interest i have in this field  </t>
+  </si>
+  <si>
+    <t>To have continuously secured employment in this particular field in 1 NGO and 3 INGOs all without a specialized training and performed well at work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I have a passion for business, but no experience, no skill, and since it's a secondary career, I have not had the chance to try </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, time and too much personal and family responsibilities </t>
+  </si>
+  <si>
+    <t>Hmmm, some how, I have some persons I look up to, but not particularly one person as my field is very dynamic. People are good in one thing but deficient in another. Hence, I have a number of persons I look up to.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +636,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -354,7 +669,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,19 +769,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -485,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AK3" totalsRowShown="0">
-  <autoFilter ref="A1:AK3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AK9" totalsRowShown="0">
+  <autoFilter ref="A1:AK9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="35"/>
@@ -827,18 +1142,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="37" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,217 +1266,841 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45180.893078703702</v>
+        <v>45167.357453703698</v>
       </c>
       <c r="C2" s="1">
-        <v>45180.906712962998</v>
+        <v>45167.363622685203</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" t="s">
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Z2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="AB2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AC2" t="s">
         <v>59</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AD2" t="s">
         <v>60</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AE2" t="s">
         <v>61</v>
       </c>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AI2" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AJ2" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>73</v>
-      </c>
       <c r="AK2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>45180.893877314797</v>
+        <v>45180.455277777801</v>
       </c>
       <c r="C3" s="1">
-        <v>45180.934293981503</v>
+        <v>45180.581666666701</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
+      <c r="R3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
+      <c r="S3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="T3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45180.893078703702</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45180.906712962998</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45180.893877314797</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45180.934293981503</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="s">
+        <v>117</v>
+      </c>
+      <c r="V5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45181.489120370403</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45181.499120370398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45181.544201388897</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45181.575914351903</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q7" t="s">
         <v>48</v>
       </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R7" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45182.417430555601</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45182.434537036999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" t="s">
+        <v>170</v>
+      </c>
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="U8" t="s">
+        <v>172</v>
+      </c>
+      <c r="V8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45182.449224536998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45182.471377314803</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" t="s">
-        <v>95</v>
+      <c r="V9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1174,6 +2113,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB9B3745C8F5A042A3D0FC3DD7ADD711" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71fbd185afe1c0dda907b744cf9f54ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e825b35-f672-4970-9371-a8c632ee8dcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6223300a076e803521a2a27da96a9d3c" ns2:_="">
     <xsd:import namespace="8e825b35-f672-4970-9371-a8c632ee8dcc"/>
@@ -1335,19 +2289,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC70164-1515-49BF-9621-21F53676666D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC3D474-ED16-4CF1-A15D-983BB68DA200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F3AA30-C24C-4F4D-8BEE-9C0A665821F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B43A96-D6FE-4B77-A536-A9A9DF3AD78F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3BD26D0-175F-4861-865F-674B6C10867D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e825b35-f672-4970-9371-a8c632ee8dcc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AllData/RawData/Surveys.xlsx
+++ b/AllData/RawData/Surveys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\jobskill\skill-job-matching\AllData\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17428700-E65F-4039-A387-F4164A2CBD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129685F-6D6D-42FF-87CE-F411FF5B9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,9 +364,6 @@
     <t>Njuaka</t>
   </si>
   <si>
-    <t>nnjuaka@yahoo.com</t>
-  </si>
-  <si>
     <t>I am Njuaka Melvin, currently a student at the University of Ghent, Belgium. I have a background in environmental engineering and over two years of experience in environmental management. I have worked with clients involved in manufacturing and have a passion in data driven-making decision. In my free time, I enjoy reading educational books, and photography. moreover, I look forward to improving my knowledge in the field of data science and to impact the world in a data-driven way</t>
   </si>
   <si>
@@ -629,6 +626,9 @@
   </si>
   <si>
     <t>Hmmm, some how, I have some persons I look up to, but not particularly one person as my field is very dynamic. People are good in one thing but deficient in another. Hence, I have a number of persons I look up to.</t>
+  </si>
+  <si>
+    <t>nambuielts@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -636,15 +636,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,9 +673,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,19 +776,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1144,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1592,8 +1599,8 @@
       <c r="H5" t="s">
         <v>110</v>
       </c>
-      <c r="I5" t="s">
-        <v>111</v>
+      <c r="I5" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="J5" t="s">
         <v>69</v>
@@ -1605,19 +1612,19 @@
         <v>90</v>
       </c>
       <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
         <v>112</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>113</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>114</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>115</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>116</v>
       </c>
       <c r="R5" t="s">
         <v>49</v>
@@ -1629,16 +1636,16 @@
         <v>51</v>
       </c>
       <c r="U5" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" t="s">
         <v>117</v>
-      </c>
-      <c r="V5" t="s">
-        <v>118</v>
       </c>
       <c r="W5" t="s">
         <v>54</v>
       </c>
       <c r="X5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y5" t="s">
         <v>96</v>
@@ -1647,34 +1654,34 @@
         <v>57</v>
       </c>
       <c r="AB5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC5" t="s">
         <v>120</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>122</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>123</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>124</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>125</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>126</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>127</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>128</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.35">
@@ -1692,13 +1699,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>131</v>
-      </c>
-      <c r="I6" t="s">
-        <v>132</v>
       </c>
       <c r="J6" t="s">
         <v>69</v>
@@ -1710,19 +1717,19 @@
         <v>43</v>
       </c>
       <c r="M6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" t="s">
         <v>133</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>134</v>
       </c>
-      <c r="O6" t="s">
-        <v>135</v>
-      </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R6" t="s">
         <v>76</v>
@@ -1746,40 +1753,40 @@
         <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s">
         <v>97</v>
       </c>
       <c r="AA6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" t="s">
         <v>136</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>138</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>139</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>140</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>141</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>142</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
         <v>143</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>144</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.35">
@@ -1797,13 +1804,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
         <v>146</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>147</v>
-      </c>
-      <c r="I7" t="s">
-        <v>148</v>
       </c>
       <c r="J7" t="s">
         <v>69</v>
@@ -1815,13 +1822,13 @@
         <v>43</v>
       </c>
       <c r="M7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" t="s">
         <v>149</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>150</v>
-      </c>
-      <c r="O7" t="s">
-        <v>151</v>
       </c>
       <c r="P7" t="s">
         <v>47</v>
@@ -1830,7 +1837,7 @@
         <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S7" t="s">
         <v>50</v>
@@ -1839,7 +1846,7 @@
         <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V7" t="s">
         <v>53</v>
@@ -1851,43 +1858,43 @@
         <v>55</v>
       </c>
       <c r="Y7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z7" t="s">
         <v>97</v>
       </c>
       <c r="AA7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>156</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>157</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>158</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>159</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>160</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>161</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>162</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>163</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>164</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
@@ -1905,13 +1912,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" t="s">
         <v>166</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>167</v>
-      </c>
-      <c r="I8" t="s">
-        <v>168</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
@@ -1923,13 +1930,13 @@
         <v>43</v>
       </c>
       <c r="M8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N8" t="s">
         <v>169</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>170</v>
-      </c>
-      <c r="O8" t="s">
-        <v>171</v>
       </c>
       <c r="P8" t="s">
         <v>74</v>
@@ -1947,7 +1954,7 @@
         <v>93</v>
       </c>
       <c r="U8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V8" t="s">
         <v>53</v>
@@ -1956,43 +1963,43 @@
         <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z8" t="s">
         <v>57</v>
       </c>
       <c r="AB8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>174</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF8" t="s">
         <v>175</v>
       </c>
-      <c r="AE8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>176</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>177</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>178</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>179</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>180</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
@@ -2010,13 +2017,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" t="s">
         <v>182</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>183</v>
-      </c>
-      <c r="I9" t="s">
-        <v>184</v>
       </c>
       <c r="J9" t="s">
         <v>69</v>
@@ -2028,19 +2035,19 @@
         <v>43</v>
       </c>
       <c r="M9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N9" t="s">
         <v>185</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>186</v>
       </c>
-      <c r="O9" t="s">
-        <v>187</v>
-      </c>
       <c r="P9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s">
         <v>115</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>116</v>
       </c>
       <c r="R9" t="s">
         <v>76</v>
@@ -2070,37 +2077,37 @@
         <v>97</v>
       </c>
       <c r="AA9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>189</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>191</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>192</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>193</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>194</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>195</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>196</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>197</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2113,21 +2120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB9B3745C8F5A042A3D0FC3DD7ADD711" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71fbd185afe1c0dda907b744cf9f54ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e825b35-f672-4970-9371-a8c632ee8dcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6223300a076e803521a2a27da96a9d3c" ns2:_="">
     <xsd:import namespace="8e825b35-f672-4970-9371-a8c632ee8dcc"/>
@@ -2289,24 +2281,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC3D474-ED16-4CF1-A15D-983BB68DA200}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B43A96-D6FE-4B77-A536-A9A9DF3AD78F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3BD26D0-175F-4861-865F-674B6C10867D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2322,4 +2312,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B43A96-D6FE-4B77-A536-A9A9DF3AD78F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC3D474-ED16-4CF1-A15D-983BB68DA200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AllData/RawData/Surveys.xlsx
+++ b/AllData/RawData/Surveys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\jobskill\skill-job-matching\AllData\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129685F-6D6D-42FF-87CE-F411FF5B9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC6D52C-DDF6-4373-8E39-EE16B3532AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
     <t>Hmmm, some how, I have some persons I look up to, but not particularly one person as my field is very dynamic. People are good in one thing but deficient in another. Hence, I have a number of persons I look up to.</t>
   </si>
   <si>
-    <t>nambuielts@gmail.com</t>
+    <t>nnjuaka@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,6 +2120,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB9B3745C8F5A042A3D0FC3DD7ADD711" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="71fbd185afe1c0dda907b744cf9f54ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e825b35-f672-4970-9371-a8c632ee8dcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6223300a076e803521a2a27da96a9d3c" ns2:_="">
     <xsd:import namespace="8e825b35-f672-4970-9371-a8c632ee8dcc"/>
@@ -2281,15 +2290,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2297,6 +2297,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B43A96-D6FE-4B77-A536-A9A9DF3AD78F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3BD26D0-175F-4861-865F-674B6C10867D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2314,14 +2322,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B43A96-D6FE-4B77-A536-A9A9DF3AD78F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC3D474-ED16-4CF1-A15D-983BB68DA200}">
   <ds:schemaRefs>
